--- a/data/trans_dic/P43B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P43B_R-Habitat-trans_dic.xlsx
@@ -590,7 +590,7 @@
         <v>0.9162106940130782</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9033084583658549</v>
+        <v>0.9033084583658547</v>
       </c>
     </row>
     <row r="5">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8865303305637272</v>
+        <v>0.885752287459128</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.879472957816595</v>
+        <v>0.8809275186341575</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.873311179004906</v>
+        <v>0.87136481233893</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9498130011776931</v>
+        <v>0.9524560051701468</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9439682796560027</v>
+        <v>0.9459883424864973</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9267118346450666</v>
+        <v>0.9285543756030844</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>0.8907950228686451</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8557150676490861</v>
+        <v>0.855715067649086</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8485830829098941</v>
+        <v>0.8439243396115402</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8625385601051287</v>
+        <v>0.8580789753271748</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8228662872842629</v>
+        <v>0.8222976040451849</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9107327311746817</v>
+        <v>0.911468247750299</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9176787004576774</v>
+        <v>0.9147442961355325</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8827123791999941</v>
+        <v>0.8840562369016324</v>
       </c>
     </row>
     <row r="10">
@@ -700,7 +700,7 @@
         <v>0.8958465794565341</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7597458729605063</v>
+        <v>0.7597458729605062</v>
       </c>
     </row>
     <row r="11">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7523779713553395</v>
+        <v>0.7588587721981963</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8585453872065278</v>
+        <v>0.8574636974502957</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.712637461690053</v>
+        <v>0.7206240863667283</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8480760499029943</v>
+        <v>0.8472107555610955</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9250141714443558</v>
+        <v>0.9274194903534196</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7954833353417748</v>
+        <v>0.8009176898486914</v>
       </c>
     </row>
     <row r="13">
@@ -755,7 +755,7 @@
         <v>0.8247104984268639</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7633407875682472</v>
+        <v>0.7633407875682471</v>
       </c>
     </row>
     <row r="14">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7883608239703539</v>
+        <v>0.7883165500108372</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.785099515011957</v>
+        <v>0.7857601032606011</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7300833332276104</v>
+        <v>0.7275812683797768</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8608909501336027</v>
+        <v>0.8589659287570444</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.857764541910249</v>
+        <v>0.8571602483549829</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7944343019588364</v>
+        <v>0.7936964696916627</v>
       </c>
     </row>
     <row r="16">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8397180981315246</v>
+        <v>0.8383608093365885</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8587941645752558</v>
+        <v>0.8582657198588326</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7991984197741219</v>
+        <v>0.7977047659592513</v>
       </c>
     </row>
     <row r="18">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8758287366935086</v>
+        <v>0.8738052782814929</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8923942353215487</v>
+        <v>0.891712296022897</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.832756917392991</v>
+        <v>0.8296705273291487</v>
       </c>
     </row>
     <row r="19">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>289054</v>
+        <v>288800</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>284460</v>
+        <v>284931</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>252597</v>
+        <v>252034</v>
       </c>
     </row>
     <row r="7">
@@ -996,13 +996,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>309687</v>
+        <v>310549</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>305321</v>
+        <v>305974</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>268043</v>
+        <v>268576</v>
       </c>
     </row>
     <row r="8">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>385543</v>
+        <v>383426</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>436353</v>
+        <v>434097</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>330164</v>
+        <v>329936</v>
       </c>
     </row>
     <row r="11">
@@ -1068,13 +1068,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>413780</v>
+        <v>414114</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>464248</v>
+        <v>462764</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>354177</v>
+        <v>354716</v>
       </c>
     </row>
     <row r="12">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>270087</v>
+        <v>272414</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>289186</v>
+        <v>288822</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>211628</v>
+        <v>214000</v>
       </c>
     </row>
     <row r="15">
@@ -1140,13 +1140,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>304441</v>
+        <v>304130</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>311575</v>
+        <v>312385</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>236231</v>
+        <v>237845</v>
       </c>
     </row>
     <row r="16">
@@ -1195,13 +1195,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>391220</v>
+        <v>391198</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>412051</v>
+        <v>412398</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>348964</v>
+        <v>347768</v>
       </c>
     </row>
     <row r="19">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>427213</v>
+        <v>426258</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>450188</v>
+        <v>449871</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>379722</v>
+        <v>379369</v>
       </c>
     </row>
     <row r="20">
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1373452</v>
+        <v>1371232</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1452230</v>
+        <v>1451336</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1171163</v>
+        <v>1168974</v>
       </c>
     </row>
     <row r="23">
@@ -1284,13 +1284,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1432515</v>
+        <v>1429206</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1509048</v>
+        <v>1507894</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1220340</v>
+        <v>1215817</v>
       </c>
     </row>
     <row r="24">
